--- a/database/AN_pp/expdata/2002.xlsx
+++ b/database/AN_pp/expdata/2002.xlsx
@@ -1,24 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6956FD73-4AF4-C74E-BB1B-4ACBA18D9CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="600" yWindow="6260" windowWidth="27240" windowHeight="15500" xr2:uid="{B8F66245-7FB9-3E44-979D-76E764E78D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>xF</t>
   </si>
   <si>
+    <t>pT</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -28,9 +42,6 @@
     <t>sys_err_u</t>
   </si>
   <si>
-    <t>pT</t>
-  </si>
-  <si>
     <t>rs</t>
   </si>
   <si>
@@ -49,30 +60,22 @@
     <t>p</t>
   </si>
   <si>
-    <t>pi0</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>AN</t>
+    <t>pi+</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>ANep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,36 +98,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,44 +132,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -203,14 +196,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -237,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -248,227 +277,205 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C9AC99-0A74-C744-9BC6-4A8242562CFC}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.415669</v>
+        <v>0.2167</v>
       </c>
       <c r="B2">
-        <v>0.03924</v>
+        <v>1.0848</v>
       </c>
       <c r="C2">
-        <v>0.003515</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>0.002055</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>2.1</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>7.25</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -483,24 +490,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.4656</v>
+        <v>0.2291</v>
       </c>
       <c r="B3">
-        <v>0.059743</v>
+        <v>1.2827</v>
       </c>
       <c r="C3">
-        <v>0.00606</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D3">
-        <v>0.002876</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>2.35</v>
+        <v>1.06E-2</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>7.25</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -515,24 +522,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.5155310000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="B4">
-        <v>0.07963300000000001</v>
+        <v>1.4822</v>
       </c>
       <c r="C4">
-        <v>0.010594</v>
+        <v>0.1024</v>
       </c>
       <c r="D4">
-        <v>0.00376</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>2.6</v>
+        <v>1.14E-2</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>7.25</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -547,24 +554,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.565395</v>
+        <v>0.22789999999999999</v>
       </c>
       <c r="B5">
-        <v>0.071087</v>
+        <v>1.6798</v>
       </c>
       <c r="C5">
-        <v>0.018915</v>
+        <v>0.1827</v>
       </c>
       <c r="D5">
-        <v>0.003352</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>2.85</v>
+        <v>1.95E-2</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>7.25</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -579,24 +586,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.615399</v>
+        <v>0.23219999999999999</v>
       </c>
       <c r="B6">
-        <v>0.091034</v>
+        <v>1.9169</v>
       </c>
       <c r="C6">
-        <v>0.034829</v>
+        <v>0.2031</v>
       </c>
       <c r="D6">
-        <v>0.004267</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>3.11</v>
+        <v>2.64E-2</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>7.25</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -608,70 +615,6 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>0.6646310000000001</v>
-      </c>
-      <c r="B7">
-        <v>0.173352</v>
-      </c>
-      <c r="C7">
-        <v>0.064719</v>
-      </c>
-      <c r="D7">
-        <v>0.008173</v>
-      </c>
-      <c r="E7">
-        <v>3.35</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>0.714242</v>
-      </c>
-      <c r="B8">
-        <v>-0.004504999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.132876</v>
-      </c>
-      <c r="D8">
-        <v>0.000798</v>
-      </c>
-      <c r="E8">
-        <v>3.61</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/2002.xlsx
+++ b/database/AN_pp/expdata/2002.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6956FD73-4AF4-C74E-BB1B-4ACBA18D9CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="6260" windowWidth="27240" windowHeight="15500" xr2:uid="{B8F66245-7FB9-3E44-979D-76E764E78D3A}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>xF</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>stat_err_u</t>
+  </si>
+  <si>
+    <t>sys_err_u</t>
+  </si>
+  <si>
     <t>pT</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>stat_err_u</t>
-  </si>
-  <si>
-    <t>sys_err_u</t>
-  </si>
-  <si>
     <t>rs</t>
   </si>
   <si>
@@ -60,22 +49,30 @@
     <t>p</t>
   </si>
   <si>
-    <t>pi+</t>
-  </si>
-  <si>
-    <t>HERMES</t>
-  </si>
-  <si>
-    <t>ANep</t>
+    <t>pi0</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>AN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,26 +95,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -132,44 +139,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,32 +203,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -248,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -277,205 +248,227 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C9AC99-0A74-C744-9BC6-4A8242562CFC}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.2167</v>
+        <v>0.415669</v>
       </c>
       <c r="B2">
-        <v>1.0848</v>
+        <v>0.03924</v>
       </c>
       <c r="C2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.003515</v>
       </c>
       <c r="D2">
-        <v>8.8999999999999999E-3</v>
+        <v>0.002055</v>
       </c>
       <c r="E2">
-        <v>4.5999999999999999E-3</v>
+        <v>2.1</v>
       </c>
       <c r="F2">
-        <v>7.25</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -490,24 +483,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.2291</v>
+        <v>0.4656</v>
       </c>
       <c r="B3">
-        <v>1.2827</v>
+        <v>0.059743</v>
       </c>
       <c r="C3">
-        <v>9.8000000000000004E-2</v>
+        <v>0.00606</v>
       </c>
       <c r="D3">
-        <v>1.4200000000000001E-2</v>
+        <v>0.002876</v>
       </c>
       <c r="E3">
-        <v>1.06E-2</v>
+        <v>2.35</v>
       </c>
       <c r="F3">
-        <v>7.25</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -522,24 +515,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.23300000000000001</v>
+        <v>0.5155310000000001</v>
       </c>
       <c r="B4">
-        <v>1.4822</v>
+        <v>0.07963300000000001</v>
       </c>
       <c r="C4">
-        <v>0.1024</v>
+        <v>0.010594</v>
       </c>
       <c r="D4">
-        <v>2.3400000000000001E-2</v>
+        <v>0.00376</v>
       </c>
       <c r="E4">
-        <v>1.14E-2</v>
+        <v>2.6</v>
       </c>
       <c r="F4">
-        <v>7.25</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -554,24 +547,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.22789999999999999</v>
+        <v>0.565395</v>
       </c>
       <c r="B5">
-        <v>1.6798</v>
+        <v>0.071087</v>
       </c>
       <c r="C5">
-        <v>0.1827</v>
+        <v>0.018915</v>
       </c>
       <c r="D5">
-        <v>4.1000000000000002E-2</v>
+        <v>0.003352</v>
       </c>
       <c r="E5">
-        <v>1.95E-2</v>
+        <v>2.85</v>
       </c>
       <c r="F5">
-        <v>7.25</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -586,24 +579,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>0.23219999999999999</v>
+        <v>0.615399</v>
       </c>
       <c r="B6">
-        <v>1.9169</v>
+        <v>0.091034</v>
       </c>
       <c r="C6">
-        <v>0.2031</v>
+        <v>0.034829</v>
       </c>
       <c r="D6">
-        <v>7.1099999999999997E-2</v>
+        <v>0.004267</v>
       </c>
       <c r="E6">
-        <v>2.64E-2</v>
+        <v>3.11</v>
       </c>
       <c r="F6">
-        <v>7.25</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -615,6 +608,70 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0.6646310000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.173352</v>
+      </c>
+      <c r="C7">
+        <v>0.064719</v>
+      </c>
+      <c r="D7">
+        <v>0.008173</v>
+      </c>
+      <c r="E7">
+        <v>3.35</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0.714242</v>
+      </c>
+      <c r="B8">
+        <v>-0.004504999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.132876</v>
+      </c>
+      <c r="D8">
+        <v>0.000798</v>
+      </c>
+      <c r="E8">
+        <v>3.61</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
     </row>
